--- a/excel/vba/flash_fill_userforms.xlsx
+++ b/excel/vba/flash_fill_userforms.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\data_science_\excel\vba\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90320D83-7809-4D54-9990-55F76BD0266C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>first columns</t>
   </si>
@@ -40,11 +51,14 @@
   <si>
     <t>IF(G15&gt;0.6,"good work ","work hard")</t>
   </si>
+  <si>
+    <t>string of text</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,7 +134,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Left Arrow 1"/>
+        <xdr:cNvPr id="2" name="Left Arrow 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -174,7 +194,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Bent-Up Arrow 2"/>
+        <xdr:cNvPr id="3" name="Bent-Up Arrow 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -478,12 +504,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,4 +600,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F312A6-8529-4ED4-BFF2-437AF20F5999}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A3:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>